--- a/Datos/BRECHAS_ING/Brechas_Ingresos_Region_12.xlsx
+++ b/Datos/BRECHAS_ING/Brechas_Ingresos_Region_12.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Users\sfarias\Documents\Curso Python\.vscode\dashboard-indicadores\Datos\BRECHAS_ING\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6653AD44-860D-43C3-A8B0-ADD280B519E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A5BC1BF-FD3C-4D2E-ACF5-8E066067E480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -103,10 +103,10 @@
     <t>Region de Magallanes y la Antártica Chilena</t>
   </si>
   <si>
-    <t>Masculino</t>
-  </si>
-  <si>
-    <t>Femenino</t>
+    <t>Mujer</t>
+  </si>
+  <si>
+    <t>Hombre</t>
   </si>
 </sst>
 </file>
@@ -477,7 +477,7 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:XFD27"/>
+      <selection activeCell="V15" sqref="V15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -531,7 +531,7 @@
         <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H2">
         <v>969210.6875</v>
@@ -560,7 +560,7 @@
         <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H3">
         <v>771951.9375</v>
@@ -589,7 +589,7 @@
         <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I4">
         <v>876868.875</v>
@@ -615,7 +615,7 @@
         <v>16</v>
       </c>
       <c r="G5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I5">
         <v>1012863.4375</v>
@@ -641,7 +641,7 @@
         <v>17</v>
       </c>
       <c r="G6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I6">
         <v>798028.25</v>
@@ -667,7 +667,7 @@
         <v>17</v>
       </c>
       <c r="G7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I7">
         <v>1085669.375</v>
@@ -693,7 +693,7 @@
         <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I8">
         <v>1071304.625</v>
@@ -719,7 +719,7 @@
         <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I9">
         <v>1032021</v>
@@ -745,7 +745,7 @@
         <v>19</v>
       </c>
       <c r="G10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H10">
         <v>1022396.9375</v>
@@ -774,7 +774,7 @@
         <v>19</v>
       </c>
       <c r="G11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H11">
         <v>876352.6875</v>
@@ -803,7 +803,7 @@
         <v>20</v>
       </c>
       <c r="G12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I12">
         <v>1763383.125</v>
@@ -829,7 +829,7 @@
         <v>20</v>
       </c>
       <c r="G13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I13">
         <v>1473580</v>
@@ -855,7 +855,7 @@
         <v>21</v>
       </c>
       <c r="G14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H14">
         <v>837133.25</v>
@@ -884,7 +884,7 @@
         <v>21</v>
       </c>
       <c r="G15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H15">
         <v>755695.0625</v>
@@ -913,7 +913,7 @@
         <v>22</v>
       </c>
       <c r="G16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H16">
         <v>817615.9375</v>
@@ -942,7 +942,7 @@
         <v>22</v>
       </c>
       <c r="G17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H17">
         <v>676117.9375</v>
@@ -971,7 +971,7 @@
         <v>23</v>
       </c>
       <c r="G18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I18">
         <v>1106252.25</v>
@@ -997,7 +997,7 @@
         <v>23</v>
       </c>
       <c r="G19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I19">
         <v>1001307.5625</v>
@@ -1023,7 +1023,7 @@
         <v>24</v>
       </c>
       <c r="G20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H20">
         <v>778647.4375</v>
@@ -1052,7 +1052,7 @@
         <v>24</v>
       </c>
       <c r="G21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H21">
         <v>681785.25</v>
@@ -1081,7 +1081,7 @@
         <v>25</v>
       </c>
       <c r="G22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I22">
         <v>905834.4375</v>
@@ -1107,7 +1107,7 @@
         <v>25</v>
       </c>
       <c r="G23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I23">
         <v>933926.5</v>
@@ -1124,7 +1124,7 @@
         <v>26</v>
       </c>
       <c r="G24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H24">
         <v>934994.125</v>
@@ -1144,7 +1144,7 @@
         <v>26</v>
       </c>
       <c r="G25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H25">
         <v>759580.875</v>
@@ -1164,7 +1164,7 @@
         <v>10</v>
       </c>
       <c r="G26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H26">
         <v>864177.4375</v>
@@ -1184,7 +1184,7 @@
         <v>10</v>
       </c>
       <c r="G27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H27">
         <v>740526.3125</v>
